--- a/CoreFramework/testsuitefiles/PortfolioSuite.xlsx
+++ b/CoreFramework/testsuitefiles/PortfolioSuite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
   <si>
     <t>TCID</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>TestingPortfolio1</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
   <si>
     <t>Mozilla</t>
@@ -925,11 +928,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -979,65 +980,83 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="pass@1234"/>
+    <hyperlink ref="D4" r:id="rId2" display="pass@1234"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/CoreFramework/testsuitefiles/PortfolioSuite.xlsx
+++ b/CoreFramework/testsuitefiles/PortfolioSuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -576,7 +576,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -584,7 +584,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -930,7 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/CoreFramework/testsuitefiles/PortfolioSuite.xlsx
+++ b/CoreFramework/testsuitefiles/PortfolioSuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -132,13 +132,13 @@
     <t>ManishSarita</t>
   </si>
   <si>
-    <t>TestingPortfolio1</t>
-  </si>
-  <si>
     <t>Chrome</t>
   </si>
   <si>
     <t>Mozilla</t>
+  </si>
+  <si>
+    <t>TestingPortfolio2</t>
   </si>
 </sst>
 </file>
@@ -576,7 +576,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -584,7 +584,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -930,7 +930,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -968,7 +970,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -985,7 +987,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
@@ -1018,10 +1020,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1045,10 +1047,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/CoreFramework/testsuitefiles/PortfolioSuite.xlsx
+++ b/CoreFramework/testsuitefiles/PortfolioSuite.xlsx
@@ -931,7 +931,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -984,7 +984,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>

--- a/CoreFramework/testsuitefiles/PortfolioSuite.xlsx
+++ b/CoreFramework/testsuitefiles/PortfolioSuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -545,7 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -576,7 +576,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -584,7 +584,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -930,7 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
